--- a/frontend/Excel.Test/k65cd.xlsx
+++ b/frontend/Excel.Test/k65cd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project_int3509\frontend\Excel.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BE8ABB-EF76-4E13-ABD0-44B950542683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38532397-CDA1-443A-B939-A5275427C796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F2802D8D-390D-4525-909C-B8B5158C3A94}"/>
   </bookViews>
@@ -245,16 +245,16 @@
     <t>Nguyễn Lương Vững</t>
   </si>
   <si>
+    <t>UET</t>
+  </si>
+  <si>
+    <t>mssv</t>
+  </si>
+  <si>
     <t>fullname</t>
   </si>
   <si>
     <t>class</t>
-  </si>
-  <si>
-    <t>mssv</t>
-  </si>
-  <si>
-    <t>UET</t>
   </si>
   <si>
     <t>university</t>
@@ -704,7 +704,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -717,13 +717,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>73</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -936,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -978,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="31" x14ac:dyDescent="0.35">
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1566,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1594,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
